--- a/src/test/resources/testDataFiles/TestDataSheet.xlsx
+++ b/src/test/resources/testDataFiles/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mennamaged/eclipse-workspace/bblog/src/test/resources/testDataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mennamaged/git/bblog/src/test/resources/testDataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9877C3-DF55-4C4D-B891-991F2B0B83E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641EF86-1B7E-0044-8BB0-E357F113CEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Variable</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Data3</t>
-  </si>
-  <si>
-    <t>Data4</t>
   </si>
   <si>
     <t>Supported Browser Types</t>
@@ -62,17 +59,23 @@
     <t>password</t>
   </si>
   <si>
-    <t>menna_maged@yahoo.com</t>
+    <t>test@123</t>
   </si>
   <si>
-    <t>qa-is-cool</t>
+    <t>test_safjgrk_user@tfbnw.net</t>
+  </si>
+  <si>
+    <t>test_safjgrk_user@tfbnw.nettttttt</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,6 +104,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -128,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,21 +198,6 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -227,27 +228,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1409,41 +1416,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV7"/>
+  <dimension ref="A1:IU7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="6" width="28.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="1" customWidth="1"/>
-    <col min="18" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
+    <col min="7" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="1" customWidth="1"/>
+    <col min="17" max="255" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1464,193 +1468,193 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="16">
+        <v>1234</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7DEEDAF7-171D-C848-836C-DD46C572E738}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{FDF6D8AB-DB62-9F41-BD0E-B81A7876E16E}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{204AEBD6-9A56-934B-9431-F7CE7F7FA6CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -1668,150 +1672,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="10" customWidth="1"/>
-    <col min="2" max="11" width="8.5" style="10" customWidth="1"/>
-    <col min="12" max="256" width="14.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="9" customWidth="1"/>
+    <col min="2" max="11" width="8.5" style="9" customWidth="1"/>
+    <col min="12" max="256" width="14.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
